--- a/public/storage/archivo_datos/1511749232.xlsx
+++ b/public/storage/archivo_datos/1511749232.xlsx
@@ -53,9 +53,6 @@
     <t>PAÍS</t>
   </si>
   <si>
-    <t>Belize</t>
-  </si>
-  <si>
     <t>AÑO</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Secretaria de Salud</t>
+  </si>
+  <si>
+    <t>BLZ</t>
   </si>
 </sst>
 </file>
@@ -237,6 +237,15 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,15 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,7 +547,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,12 +569,12 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>2013</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -593,56 +593,56 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>43465</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
